--- a/Sorteio Times Futebol/Versão 7.0/Preparação Sorteio/bancodedados.xlsx
+++ b/Sorteio Times Futebol/Versão 7.0/Preparação Sorteio/bancodedados.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="1yGaYeDZE0dqNY4wuU3RyJsMJWiM3Gog9rkXi+GQgv8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="JwgajfOnuZM+J2cPYb8wtvJxcVtdtU6mjdyzLnymw8w="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -381,13 +381,25 @@
   </si>
   <si>
     <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Hiago</t>
+  </si>
+  <si>
+    <t>Goncalves</t>
+  </si>
+  <si>
+    <t>Juliano</t>
+  </si>
+  <si>
+    <t>Luiz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -424,6 +436,11 @@
       <sz val="11.0"/>
       <color rgb="FF4C535E"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -484,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -523,6 +540,9 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,7 +971,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>11</v>
@@ -1908,7 +1928,7 @@
         <v>63</v>
       </c>
       <c r="C51" s="6">
-        <v>3.0</v>
+        <v>2.5</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>9</v>
@@ -2184,7 +2204,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>9</v>
@@ -2193,7 +2213,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>11</v>
@@ -2805,7 +2825,7 @@
         <v>102</v>
       </c>
       <c r="C90" s="6">
-        <v>4.5</v>
+        <v>4.0</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>8</v>
@@ -3196,7 +3216,7 @@
         <v>119</v>
       </c>
       <c r="C107" s="6">
-        <v>3.0</v>
+        <v>2.5</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>9</v>
@@ -3234,10 +3254,98 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="13">
+        <v>108.0</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C109" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="13">
+        <v>109.0</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="13">
+        <v>110.0</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="13">
+        <v>111.0</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1"/>
@@ -4132,20 +4240,21 @@
   <autoFilter ref="$A$1:$G$97">
     <sortState ref="A1:G97">
       <sortCondition ref="A1:A97"/>
+      <sortCondition descending="1" ref="F1:F97"/>
+      <sortCondition ref="B1:B97"/>
       <sortCondition ref="E1:E97"/>
       <sortCondition ref="D1:D97"/>
       <sortCondition descending="1" ref="C1:C97"/>
-      <sortCondition descending="1" ref="F1:F97"/>
     </sortState>
   </autoFilter>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F108">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F112">
       <formula1>"mensalista,diarista"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D88 D89:E89 D90:D95 D96:E96 D97:D98 D99:E99 D101:E102 E103 D104:E104 D105:D106 D107:E107 D108">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D88 D89:E89 D90:D95 D96:E96 D97:D98 D99:E99 D101:E102 E103 D104:E104 D105:D106 D107:E107 D108 D109:E109 D110 D111:E111 D112">
       <formula1>"meia,zagueiro,atacante,qualquer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E88 E90:E95 E97:E98 D100:E100 D103 E105:E106 E108">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E88 E90:E95 E97:E98 D100:E100 D103 E105:E106 E108 E110 E112">
       <formula1>"atacante,nenhum,meia,zagueiro,qualquer"</formula1>
     </dataValidation>
   </dataValidations>
